--- a/Res_Data(1).xlsx
+++ b/Res_Data(1).xlsx
@@ -45,20 +45,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF746367"/>
-        <bgColor rgb="FF746367"/>
+        <fgColor rgb="FF79D2D6"/>
+        <bgColor rgb="FF79D2D6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBC1466"/>
-        <bgColor rgb="FFBC1466"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4ACA57"/>
-        <bgColor rgb="FF4ACA57"/>
+        <fgColor rgb="FF746367"/>
+        <bgColor rgb="FF746367"/>
       </patternFill>
     </fill>
     <fill>
@@ -75,8 +69,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF79D2D6"/>
-        <bgColor rgb="FF79D2D6"/>
+        <fgColor rgb="FFBC1466"/>
+        <bgColor rgb="FFBC1466"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4ACA57"/>
+        <bgColor rgb="FF4ACA57"/>
       </patternFill>
     </fill>
   </fills>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>500000032060</v>
+        <v>35913</v>
       </c>
     </row>
     <row r="3">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.328826904296875</v>
+        <v>0.1967389583587646</v>
       </c>
     </row>
     <row r="4">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.646659794186174e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16665</v>
+        <v>19709</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15342</v>
+        <v>16141</v>
       </c>
     </row>
     <row r="4">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32007</v>
+        <v>35850</v>
       </c>
     </row>
   </sheetData>
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -855,166 +855,140 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Person 0</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Person 1</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Person 2</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Person 3</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Person 4</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Person 5</t>
-        </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Person 6</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Person 7</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Person 8</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Person 9</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Person 10</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Person 11</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Person 12</t>
-        </is>
+      <c r="A14" t="n">
+        <v>13</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -1024,36 +998,30 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Person 13</t>
-        </is>
+      <c r="A15" t="n">
+        <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Person 14</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4</v>
-      </c>
-    </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Person 15</t>
-        </is>
+      <c r="A17" t="n">
+        <v>16</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -1063,29 +1031,25 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Person 16</t>
-        </is>
+      <c r="A18" t="n">
+        <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Person 17</t>
-        </is>
+      <c r="A19" t="n">
+        <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1140,17 +1104,17 @@
           <t>Person 1</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
@@ -1162,12 +1126,17 @@
           <t>Person 2</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>SG</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>SG</t>
         </is>
@@ -1179,14 +1148,19 @@
           <t>Person 3</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>SG</t>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FD</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FD</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>FD</t>
         </is>
       </c>
     </row>
@@ -1196,12 +1170,12 @@
           <t>Person 4</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>AT</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>AT</t>
         </is>
@@ -1219,17 +1193,17 @@
           <t>Person 5</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="H6" s="4" t="n"/>
+      <c r="H6" s="5" t="n"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>AT</t>
@@ -1242,17 +1216,12 @@
           <t>Person 6</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>PD</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>PD</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>PD</t>
         </is>
@@ -1270,22 +1239,22 @@
           <t>Person 7</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="D8" s="7" t="inlineStr">
         <is>
           <t>GY</t>
         </is>
       </c>
-      <c r="D8" s="6" t="inlineStr">
+      <c r="E8" s="7" t="inlineStr">
         <is>
           <t>GY</t>
         </is>
       </c>
-      <c r="E8" s="6" t="inlineStr">
+      <c r="F8" s="7" t="inlineStr">
         <is>
           <t>GY</t>
         </is>
       </c>
-      <c r="H8" s="5" t="n"/>
+      <c r="H8" s="6" t="n"/>
       <c r="I8" t="inlineStr">
         <is>
           <t>PD</t>
@@ -1298,17 +1267,17 @@
           <t>Person 8</t>
         </is>
       </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>PD</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>PD</t>
-        </is>
-      </c>
-      <c r="H9" s="6" t="n"/>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>FD</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>FD</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="n"/>
       <c r="I9" t="inlineStr">
         <is>
           <t>GY</t>
@@ -1331,12 +1300,7 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="n"/>
+      <c r="H10" s="4" t="n"/>
       <c r="I10" t="inlineStr">
         <is>
           <t>FD</t>
@@ -1349,6 +1313,11 @@
           <t>Person 10</t>
         </is>
       </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
           <t>NS</t>
@@ -1366,6 +1335,21 @@
           <t>Person 11</t>
         </is>
       </c>
+      <c r="D12" s="7" t="inlineStr">
+        <is>
+          <t>GY</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr">
+        <is>
+          <t>GY</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr">
+        <is>
+          <t>GY</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1373,12 +1357,12 @@
           <t>Person 12</t>
         </is>
       </c>
-      <c r="D13" s="6" t="inlineStr">
-        <is>
-          <t>GY</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>FD</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>FD</t>
         </is>
@@ -1390,12 +1374,12 @@
           <t>Person 13</t>
         </is>
       </c>
-      <c r="B14" s="6" t="inlineStr">
+      <c r="B14" s="7" t="inlineStr">
         <is>
           <t>GY</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr">
+      <c r="C14" s="7" t="inlineStr">
         <is>
           <t>GY</t>
         </is>
@@ -1407,14 +1391,14 @@
           <t>Person 14</t>
         </is>
       </c>
-      <c r="E15" s="7" t="inlineStr">
-        <is>
-          <t>FD</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="inlineStr">
-        <is>
-          <t>FD</t>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>SG</t>
         </is>
       </c>
     </row>
@@ -1424,17 +1408,17 @@
           <t>Person 15</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>AT</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>AT</t>
         </is>
       </c>
-      <c r="D16" s="4" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>AT</t>
         </is>
@@ -1446,17 +1430,17 @@
           <t>Person 16</t>
         </is>
       </c>
-      <c r="B17" s="7" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>FD</t>
         </is>
       </c>
-      <c r="C17" s="7" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>FD</t>
         </is>
       </c>
-      <c r="D17" s="7" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>FD</t>
         </is>
@@ -1468,14 +1452,19 @@
           <t>Person 17</t>
         </is>
       </c>
-      <c r="C18" s="7" t="inlineStr">
-        <is>
-          <t>FD</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr">
-        <is>
-          <t>FD</t>
+      <c r="D18" s="6" t="inlineStr">
+        <is>
+          <t>PD</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="inlineStr">
+        <is>
+          <t>PD</t>
+        </is>
+      </c>
+      <c r="F18" s="6" t="inlineStr">
+        <is>
+          <t>PD</t>
         </is>
       </c>
     </row>
@@ -1485,12 +1474,12 @@
           <t>Person 18</t>
         </is>
       </c>
-      <c r="E19" s="6" t="inlineStr">
+      <c r="B19" s="7" t="inlineStr">
         <is>
           <t>GY</t>
         </is>
       </c>
-      <c r="F19" s="6" t="inlineStr">
+      <c r="C19" s="7" t="inlineStr">
         <is>
           <t>GY</t>
         </is>
@@ -1557,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1585,10 +1574,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1604,16 +1593,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1632,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1654,19 +1643,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>-0</v>
@@ -1679,19 +1668,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-0</v>
